--- a/2019_5_31_import_to_R_DOTA_225227.xlsx
+++ b/2019_5_31_import_to_R_DOTA_225227.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3197,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5590,8 +5591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,9 +6011,8 @@
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15" s="1">
-        <f>$B$14</f>
-        <v>5.7028593293288726E-6</v>
+      <c r="B15" s="2">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C15">
         <v>5.6098587913571245E-3</v>
@@ -6040,9 +6040,9 @@
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" ref="B16:B79" si="0">$B$14</f>
-        <v>5.7028593293288726E-6</v>
+      <c r="B16" s="2">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C16">
         <v>5.6654814010502416E-3</v>
@@ -6070,9 +6070,9 @@
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+      <c r="B17" s="2">
+        <f t="shared" ref="B17:B80" si="0">0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C17">
         <v>5.7622648632207488E-3</v>
@@ -6100,9 +6100,9 @@
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C18">
         <v>5.9010579658259595E-3</v>
@@ -6130,9 +6130,9 @@
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C19">
         <v>6.0684661622449143E-3</v>
@@ -6160,9 +6160,9 @@
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C20">
         <v>6.2693775979477577E-3</v>
@@ -6190,9 +6190,9 @@
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C21">
         <v>6.5037802955385821E-3</v>
@@ -6220,9 +6220,9 @@
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C22">
         <v>6.7716707968349579E-3</v>
@@ -6250,9 +6250,9 @@
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C23">
         <v>7.0730480982634037E-3</v>
@@ -6280,9 +6280,9 @@
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C24">
         <v>7.4079119071508003E-3</v>
@@ -6310,9 +6310,9 @@
       <c r="A25">
         <v>0</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C25">
         <v>7.7762621377754039E-3</v>
@@ -6340,9 +6340,9 @@
       <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C26">
         <v>8.178098764934005E-3</v>
@@ -6370,16 +6370,16 @@
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C27">
         <v>8.6134217811899803E-3</v>
       </c>
       <c r="D27" s="1">
-        <f>$D$26</f>
-        <v>9.805374193685854E-5</v>
+        <f>0.000001</f>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E27">
         <v>5.5490256872210035E-2</v>
@@ -6401,16 +6401,16 @@
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C28">
         <v>9.0822311843427334E-3</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:D82" si="1">$D$26</f>
-        <v>9.805374193685854E-5</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E28">
         <v>5.2962079202951796E-2</v>
@@ -6432,16 +6432,16 @@
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C29">
         <v>9.5845269737394809E-3</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <f t="shared" ref="D29:D82" si="1">0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E29">
         <v>5.0855264480102788E-2</v>
@@ -6463,16 +6463,16 @@
       <c r="A30">
         <v>0</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C30">
         <v>1.0120309149186159E-2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E30">
         <v>4.9169812702210589E-2</v>
@@ -6494,16 +6494,16 @@
       <c r="A31">
         <v>0</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C31">
         <v>1.0689577710624999E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E31">
         <v>4.7905723868885759E-2</v>
@@ -6525,16 +6525,16 @@
       <c r="A32">
         <v>0</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C32">
         <v>1.1292332658038768E-2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E32">
         <v>4.7062997980023683E-2</v>
@@ -6556,16 +6556,16 @@
       <c r="A33">
         <v>0</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C33">
         <v>1.1928573991422345E-2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E33">
         <v>4.6641635035596013E-2</v>
@@ -6587,16 +6587,16 @@
       <c r="A34">
         <v>0</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C34">
         <v>1.2149274503681388E-2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E34">
         <v>4.6134570151025373E-2</v>
@@ -6618,16 +6618,16 @@
       <c r="A35">
         <v>0</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C35">
         <v>1.1939517494707475E-2</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E35">
         <v>4.5338057615050976E-2</v>
@@ -6649,16 +6649,16 @@
       <c r="A36">
         <v>0</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C36">
         <v>1.1733381937728639E-2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E36">
         <v>4.4555296857511167E-2</v>
@@ -6680,16 +6680,16 @@
       <c r="A37">
         <v>0</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C37">
         <v>1.1530805307852018E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E37">
         <v>4.3786050451960809E-2</v>
@@ -6711,16 +6711,16 @@
       <c r="A38">
         <v>0</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C38">
         <v>1.133172615970697E-2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E38">
         <v>4.3030085071236131E-2</v>
@@ -6742,16 +6742,16 @@
       <c r="A39">
         <v>0</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C39">
         <v>1.1136084109738119E-2</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E39">
         <v>4.2287171420215791E-2</v>
@@ -6773,16 +6773,16 @@
       <c r="A40">
         <v>0</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C40">
         <v>1.0943819816268314E-2</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E40">
         <v>4.1557084160113784E-2</v>
@@ -6804,16 +6804,16 @@
       <c r="A41">
         <v>0</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C41">
         <v>1.0754874962385913E-2</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E41">
         <v>4.0839601843497129E-2</v>
@@ -6835,16 +6835,16 @@
       <c r="A42">
         <v>0</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C42">
         <v>1.0569192238007986E-2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E42">
         <v>4.0134506846174346E-2</v>
@@ -6866,16 +6866,16 @@
       <c r="A43">
         <v>0</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C43">
         <v>1.0386715322473566E-2</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E43">
         <v>3.9441585301096538E-2</v>
@@ -6897,16 +6897,16 @@
       <c r="A44">
         <v>0</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C44">
         <v>1.0207388867399119E-2</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E44">
         <v>3.8760627033254294E-2</v>
@@ -6928,16 +6928,16 @@
       <c r="A45">
         <v>0</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C45">
         <v>1.0031158479697235E-2</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E45">
         <v>3.8091425495194439E-2</v>
@@ -6959,16 +6959,16 @@
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C46">
         <v>9.8613756734621666E-3</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E46">
         <v>3.7446707427270604E-2</v>
@@ -6990,16 +6990,16 @@
       <c r="A47">
         <v>0</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C47">
         <v>9.6911779840344534E-3</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E47">
         <v>3.6800413918957331E-2</v>
@@ -7021,16 +7021,16 @@
       <c r="A48">
         <v>0</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C48">
         <v>9.5205137874735096E-3</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E48">
         <v>3.6152348938112318E-2</v>
@@ -7052,16 +7052,16 @@
       <c r="A49">
         <v>0</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C49">
         <v>9.3561422864343064E-3</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E49">
         <v>3.5528179277345757E-2</v>
@@ -7083,16 +7083,16 @@
       <c r="A50">
         <v>0</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C50">
         <v>9.1946086567398343E-3</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E50">
         <v>3.4914785895820713E-2</v>
@@ -7114,16 +7114,16 @@
       <c r="A51">
         <v>0</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C51">
         <v>9.0358639021444562E-3</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E51">
         <v>3.4311982739568973E-2</v>
@@ -7145,16 +7145,16 @@
       <c r="A52">
         <v>0</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C52">
         <v>8.8798598730901006E-3</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E52">
         <v>3.3719586969758193E-2</v>
@@ -7176,16 +7176,16 @@
       <c r="A53">
         <v>0</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C53">
         <v>8.7265492508096995E-3</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E53">
         <v>3.3137418902327562E-2</v>
@@ -7207,16 +7207,16 @@
       <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C54">
         <v>8.3595048650737542E-3</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E54">
         <v>3.1743637326551666E-2</v>
@@ -7238,16 +7238,16 @@
       <c r="A55">
         <v>0</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C55">
         <v>7.7969775005873009E-3</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E55">
         <v>2.9607546142595954E-2</v>
@@ -7269,16 +7269,16 @@
       <c r="A56">
         <v>0</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C56">
         <v>7.2723036982353948E-3</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E56">
         <v>2.7615196695419116E-2</v>
@@ -7300,16 +7300,16 @@
       <c r="A57">
         <v>0</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C57">
         <v>6.7829362195562489E-3</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E57">
         <v>2.5756916329137784E-2</v>
@@ -7331,16 +7331,16 @@
       <c r="A58">
         <v>0</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C58">
         <v>6.3286268626899858E-3</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E58">
         <v>2.4031762544172039E-2</v>
@@ -7362,16 +7362,16 @@
       <c r="A59">
         <v>0</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C59">
         <v>5.9029044070931852E-3</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E59">
         <v>2.2415162105467158E-2</v>
@@ -7393,16 +7393,16 @@
       <c r="A60">
         <v>0</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C60">
         <v>5.5037020135048553E-3</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E60">
         <v>2.0899266582168421E-2</v>
@@ -7424,16 +7424,16 @@
       <c r="A61">
         <v>0</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C61">
         <v>5.1333471858570571E-3</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E61">
         <v>1.9492914229876861E-2</v>
@@ -7455,16 +7455,16 @@
       <c r="A62">
         <v>0</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C62">
         <v>4.7863051776386193E-3</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E62">
         <v>1.817508789640692E-2</v>
@@ -7486,16 +7486,16 @@
       <c r="A63">
         <v>0</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C63">
         <v>3.9388626738084791E-3</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E63">
         <v>1.4957085403330855E-2</v>
@@ -7517,16 +7517,16 @@
       <c r="A64">
         <v>0</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C64">
         <v>2.78115174584049E-3</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E64">
         <v>1.0560897301336469E-2</v>
@@ -7548,16 +7548,16 @@
       <c r="A65">
         <v>0</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C65">
         <v>1.7241282160008248E-3</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E65">
         <v>6.5470505342808761E-3</v>
@@ -7579,16 +7579,16 @@
       <c r="A66">
         <v>0</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C66">
         <v>8.582678967799769E-4</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E66">
         <v>3.2591098736283208E-3</v>
@@ -7610,16 +7610,16 @@
       <c r="A67">
         <v>0</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C67">
         <v>4.2774088018584627E-4</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E67">
         <v>1.6242650240074592E-3</v>
@@ -7641,16 +7641,16 @@
       <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C68">
         <v>1.9244677330164525E-4</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E68">
         <v>7.3078019272121496E-4</v>
@@ -7672,16 +7672,16 @@
       <c r="A69">
         <v>0</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C69">
         <v>5.8903418436493281E-5</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E69">
         <v>2.2367458148798657E-4</v>
@@ -7703,16 +7703,16 @@
       <c r="A70">
         <v>0</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C70">
         <v>1.0313604391080787E-5</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E70">
         <v>3.9163960378544578E-5</v>
@@ -7734,16 +7734,16 @@
       <c r="A71">
         <v>0</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C71">
         <v>1.8122759974132708E-6</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E71">
         <v>6.8817750484070087E-6</v>
@@ -7765,16 +7765,16 @@
       <c r="A72">
         <v>0</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C72">
         <v>3.1795319999593691E-7</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E72">
         <v>1.2073670905625486E-6</v>
@@ -7796,16 +7796,16 @@
       <c r="A73">
         <v>0</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C73">
         <v>5.5392534955561898E-8</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E73">
         <v>2.1034266605599716E-7</v>
@@ -7827,16 +7827,16 @@
       <c r="A74">
         <v>0</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C74">
         <v>9.7375868871267369E-9</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E74">
         <v>3.697664294355419E-8</v>
@@ -7858,16 +7858,16 @@
       <c r="A75">
         <v>0</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C75">
         <v>1.7005911516065857E-9</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E75">
         <v>6.4576729876531992E-9</v>
@@ -7889,16 +7889,16 @@
       <c r="A76">
         <v>0</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C76">
         <v>2.6435727183809442E-10</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E76">
         <v>1.0038466987351962E-9</v>
@@ -7920,16 +7920,16 @@
       <c r="A77">
         <v>0</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C77">
         <v>8.0125270943364607E-12</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E77">
         <v>3.0426054922756636E-11</v>
@@ -7951,16 +7951,16 @@
       <c r="A78">
         <v>0</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C78">
         <v>8.3879473553536407E-14</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E78">
         <v>3.1851642299415658E-13</v>
@@ -7982,16 +7982,16 @@
       <c r="A79">
         <v>0</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <f t="shared" si="0"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C79">
         <v>7.589968479745114E-25</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E79">
         <v>2.8821468571375951E-24</v>
@@ -8013,16 +8013,16 @@
       <c r="A80">
         <v>0</v>
       </c>
-      <c r="B80" s="1">
-        <f t="shared" ref="B80:B82" si="2">$B$14</f>
-        <v>5.7028593293288726E-6</v>
+      <c r="B80" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C80">
         <v>6.2841885771127523E-47</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E80">
         <v>2.3863016566563828E-46</v>
@@ -8044,16 +8044,16 @@
       <c r="A81">
         <v>0</v>
       </c>
-      <c r="B81" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7028593293288726E-6</v>
+      <c r="B81" s="2">
+        <f t="shared" ref="B81:B82" si="2">0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C81">
         <v>4.3927741943269375E-91</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E81">
         <v>1.6680728480073582E-90</v>
@@ -8075,16 +8075,16 @@
       <c r="A82">
         <v>0</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <f t="shared" si="2"/>
-        <v>5.7028593293288726E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C82">
         <v>2.2411755261357571E-179</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="1"/>
-        <v>9.805374193685854E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E82">
         <v>8.5104398209079093E-179</v>
@@ -8111,7 +8111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:I82"/>
     </sheetView>
   </sheetViews>
@@ -10504,8 +10504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AG82"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12897,7 +12897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>

--- a/2019_5_31_import_to_R_DOTA_225227.xlsx
+++ b/2019_5_31_import_to_R_DOTA_225227.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="1" r:id="rId1"/>
@@ -5591,8 +5591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6071,7 +6071,6 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" ref="B17:B80" si="0">0.0000001</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C17">
@@ -6101,7 +6100,6 @@
         <v>0</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C18">
@@ -6131,7 +6129,6 @@
         <v>0</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C19">
@@ -6161,7 +6158,6 @@
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C20">
@@ -6191,7 +6187,6 @@
         <v>0</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C21">
@@ -6221,7 +6216,6 @@
         <v>0</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C22">
@@ -6251,7 +6245,6 @@
         <v>0</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C23">
@@ -6281,7 +6274,6 @@
         <v>0</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C24">
@@ -6311,7 +6303,6 @@
         <v>0</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C25">
@@ -6341,7 +6332,6 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C26">
@@ -6371,14 +6361,12 @@
         <v>0</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C27">
         <v>8.6134217811899803E-3</v>
       </c>
       <c r="D27" s="1">
-        <f>0.000001</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E27">
@@ -6402,14 +6390,12 @@
         <v>0</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C28">
         <v>9.0822311843427334E-3</v>
       </c>
       <c r="D28" s="1">
-        <f>0.0000001</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E28">
@@ -6433,14 +6419,12 @@
         <v>0</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C29">
         <v>9.5845269737394809E-3</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:D82" si="1">0.0000001</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E29">
@@ -6464,14 +6448,12 @@
         <v>0</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C30">
         <v>1.0120309149186159E-2</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E30">
@@ -6495,14 +6477,12 @@
         <v>0</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C31">
         <v>1.0689577710624999E-2</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E31">
@@ -6526,14 +6506,12 @@
         <v>0</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C32">
         <v>1.1292332658038768E-2</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E32">
@@ -6557,14 +6535,12 @@
         <v>0</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C33">
         <v>1.1928573991422345E-2</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E33">
@@ -6588,14 +6564,12 @@
         <v>0</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C34">
         <v>1.2149274503681388E-2</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E34">
@@ -6619,14 +6593,12 @@
         <v>0</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C35">
         <v>1.1939517494707475E-2</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E35">
@@ -6650,14 +6622,12 @@
         <v>0</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C36">
         <v>1.1733381937728639E-2</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E36">
@@ -6681,14 +6651,12 @@
         <v>0</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C37">
         <v>1.1530805307852018E-2</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E37">
@@ -6712,14 +6680,12 @@
         <v>0</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C38">
         <v>1.133172615970697E-2</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E38">
@@ -6743,14 +6709,12 @@
         <v>0</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C39">
         <v>1.1136084109738119E-2</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E39">
@@ -6774,14 +6738,12 @@
         <v>0</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C40">
         <v>1.0943819816268314E-2</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E40">
@@ -6805,14 +6767,12 @@
         <v>0</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C41">
         <v>1.0754874962385913E-2</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E41">
@@ -6836,14 +6796,12 @@
         <v>0</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C42">
         <v>1.0569192238007986E-2</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E42">
@@ -6867,14 +6825,12 @@
         <v>0</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C43">
         <v>1.0386715322473566E-2</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E43">
@@ -6898,14 +6854,12 @@
         <v>0</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C44">
         <v>1.0207388867399119E-2</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E44">
@@ -6929,14 +6883,12 @@
         <v>0</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C45">
         <v>1.0031158479697235E-2</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E45">
@@ -6960,14 +6912,12 @@
         <v>0</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C46">
         <v>9.8613756734621666E-3</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E46">
@@ -6991,14 +6941,12 @@
         <v>0</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C47">
         <v>9.6911779840344534E-3</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E47">
@@ -7022,14 +6970,12 @@
         <v>0</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C48">
         <v>9.5205137874735096E-3</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E48">
@@ -7053,14 +6999,12 @@
         <v>0</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C49">
         <v>9.3561422864343064E-3</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E49">
@@ -7084,14 +7028,12 @@
         <v>0</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C50">
         <v>9.1946086567398343E-3</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E50">
@@ -7115,14 +7057,12 @@
         <v>0</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C51">
         <v>9.0358639021444562E-3</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E51">
@@ -7146,14 +7086,12 @@
         <v>0</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C52">
         <v>8.8798598730901006E-3</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E52">
@@ -7177,14 +7115,12 @@
         <v>0</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C53">
         <v>8.7265492508096995E-3</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E53">
@@ -7208,14 +7144,12 @@
         <v>0</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C54">
         <v>8.3595048650737542E-3</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E54">
@@ -7239,14 +7173,12 @@
         <v>0</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C55">
         <v>7.7969775005873009E-3</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E55">
@@ -7270,14 +7202,12 @@
         <v>0</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C56">
         <v>7.2723036982353948E-3</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E56">
@@ -7301,14 +7231,12 @@
         <v>0</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C57">
         <v>6.7829362195562489E-3</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E57">
@@ -7332,14 +7260,12 @@
         <v>0</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C58">
         <v>6.3286268626899858E-3</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E58">
@@ -7363,14 +7289,12 @@
         <v>0</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C59">
         <v>5.9029044070931852E-3</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E59">
@@ -7394,14 +7318,12 @@
         <v>0</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C60">
         <v>5.5037020135048553E-3</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E60">
@@ -7425,14 +7347,12 @@
         <v>0</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C61">
         <v>5.1333471858570571E-3</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E61">
@@ -7456,14 +7376,12 @@
         <v>0</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C62">
         <v>4.7863051776386193E-3</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E62">
@@ -7487,14 +7405,12 @@
         <v>0</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C63">
         <v>3.9388626738084791E-3</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E63">
@@ -7518,14 +7434,12 @@
         <v>0</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C64">
         <v>2.78115174584049E-3</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E64">
@@ -7549,14 +7463,12 @@
         <v>0</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C65">
         <v>1.7241282160008248E-3</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E65">
@@ -7580,14 +7492,12 @@
         <v>0</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C66">
         <v>8.582678967799769E-4</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E66">
@@ -7611,14 +7521,12 @@
         <v>0</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C67">
         <v>4.2774088018584627E-4</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E67">
@@ -7642,14 +7550,12 @@
         <v>0</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C68">
         <v>1.9244677330164525E-4</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E68">
@@ -7673,14 +7579,12 @@
         <v>0</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C69">
         <v>5.8903418436493281E-5</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E69">
@@ -7704,14 +7608,12 @@
         <v>0</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C70">
         <v>1.0313604391080787E-5</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E70">
@@ -7735,14 +7637,12 @@
         <v>0</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C71">
         <v>1.8122759974132708E-6</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E71">
@@ -7766,14 +7666,12 @@
         <v>0</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C72">
         <v>3.1795319999593691E-7</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E72">
@@ -7797,14 +7695,12 @@
         <v>0</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C73">
         <v>5.5392534955561898E-8</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E73">
@@ -7828,14 +7724,12 @@
         <v>0</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C74">
         <v>9.7375868871267369E-9</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E74">
@@ -7859,14 +7753,12 @@
         <v>0</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C75">
         <v>1.7005911516065857E-9</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E75">
@@ -7890,14 +7782,12 @@
         <v>0</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C76">
         <v>2.6435727183809442E-10</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E76">
@@ -7921,14 +7811,12 @@
         <v>0</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C77">
         <v>8.0125270943364607E-12</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E77">
@@ -7952,14 +7840,12 @@
         <v>0</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C78">
         <v>8.3879473553536407E-14</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E78">
@@ -7983,14 +7869,12 @@
         <v>0</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C79">
         <v>7.589968479745114E-25</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E79">
@@ -8014,14 +7898,12 @@
         <v>0</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C80">
         <v>6.2841885771127523E-47</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E80">
@@ -8045,14 +7927,12 @@
         <v>0</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" ref="B81:B82" si="2">0.0000001</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C81">
         <v>4.3927741943269375E-91</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E81">
@@ -8076,14 +7956,12 @@
         <v>0</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="2"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C82">
         <v>2.2411755261357571E-179</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="1"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E82">
@@ -34487,8 +34365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35455,9 +35333,8 @@
       <c r="A34">
         <v>2.5624149875460482E-3</v>
       </c>
-      <c r="B34" s="1">
-        <f t="shared" ref="B34:B82" si="0">$B$32</f>
-        <v>2.8346849375319311E-4</v>
+      <c r="B34" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C34">
         <v>1.4385992136827907E-3</v>
@@ -35485,9 +35362,8 @@
       <c r="A35">
         <v>2.6156596103508473E-3</v>
       </c>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B35" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C35">
         <v>1.4797941423876151E-3</v>
@@ -35515,9 +35391,8 @@
       <c r="A36">
         <v>2.6714865505772642E-3</v>
       </c>
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B36" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C36">
         <v>1.5228257743918187E-3</v>
@@ -35545,9 +35420,8 @@
       <c r="A37">
         <v>2.7299266551413697E-3</v>
       </c>
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B37" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C37">
         <v>1.5676884578937863E-3</v>
@@ -35575,9 +35449,8 @@
       <c r="A38">
         <v>2.791009678274373E-3</v>
       </c>
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B38" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C38">
         <v>1.6143668550291281E-3</v>
@@ -35605,9 +35478,8 @@
       <c r="A39">
         <v>2.8547643052163982E-3</v>
       </c>
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B39" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C39">
         <v>1.662840253696198E-3</v>
@@ -35635,9 +35507,8 @@
       <c r="A40">
         <v>2.9212181750174942E-3</v>
       </c>
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B40" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C40">
         <v>1.7130853131281777E-3</v>
@@ -35665,9 +35536,8 @@
       <c r="A41">
         <v>2.990397902549749E-3</v>
       </c>
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B41" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C41">
         <v>1.7650778011153315E-3</v>
@@ -35695,9 +35565,8 @@
       <c r="A42">
         <v>3.0623290997703972E-3</v>
       </c>
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B42" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C42">
         <v>1.8187936771446459E-3</v>
@@ -35725,9 +35594,8 @@
       <c r="A43">
         <v>3.137036396301134E-3</v>
       </c>
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B43" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C43">
         <v>1.8742097492646592E-3</v>
@@ -35755,9 +35623,8 @@
       <c r="A44">
         <v>3.2145434593828228E-3</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B44" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C44">
         <v>1.9313040526849638E-3</v>
@@ -35785,9 +35652,8 @@
       <c r="A45">
         <v>3.2948730132604659E-3</v>
       </c>
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B45" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C45">
         <v>1.9900560471092844E-3</v>
@@ -35815,9 +35681,8 @@
       <c r="A46">
         <v>3.3779894319185661E-3</v>
       </c>
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B46" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C46">
         <v>2.0503621806869134E-3</v>
@@ -35845,9 +35710,8 @@
       <c r="A47">
         <v>3.4639710444206934E-3</v>
       </c>
-      <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B47" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C47">
         <v>2.1122918590034279E-3</v>
@@ -35875,9 +35739,8 @@
       <c r="A48">
         <v>3.5528952748045315E-3</v>
       </c>
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B48" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C48">
         <v>2.1759109631050086E-3</v>
@@ -35905,9 +35768,8 @@
       <c r="A49">
         <v>3.6447238335878453E-3</v>
       </c>
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B49" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C49">
         <v>2.241120330832339E-3</v>
@@ -35935,9 +35797,8 @@
       <c r="A50">
         <v>3.7394750046211155E-3</v>
       </c>
-      <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B50" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C50">
         <v>2.3079066287223253E-3</v>
@@ -35965,9 +35826,8 @@
       <c r="A51">
         <v>3.8371662358776051E-3</v>
       </c>
-      <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B51" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C51">
         <v>2.3762577452758173E-3</v>
@@ -35995,9 +35855,8 @@
       <c r="A52">
         <v>3.9378141561270535E-3</v>
       </c>
-      <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B52" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C52">
         <v>2.4461626972891891E-3</v>
@@ -36025,9 +35884,8 @@
       <c r="A53">
         <v>4.0414345913164906E-3</v>
       </c>
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B53" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C53">
         <v>2.5176115376423806E-3</v>
@@ -36055,9 +35913,8 @@
       <c r="A54">
         <v>4.485996437462135E-3</v>
       </c>
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B54" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C54">
         <v>2.8186816335645038E-3</v>
@@ -36085,9 +35942,8 @@
       <c r="A55">
         <v>4.979172306364449E-3</v>
       </c>
-      <c r="B55" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B55" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C55">
         <v>3.1438479120087879E-3</v>
@@ -36115,9 +35971,8 @@
       <c r="A56">
         <v>5.5216245967001911E-3</v>
       </c>
-      <c r="B56" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B56" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C56">
         <v>3.4928115989019074E-3</v>
@@ -36145,9 +36000,8 @@
       <c r="A57">
         <v>6.1138487478229562E-3</v>
       </c>
-      <c r="B57" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B57" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C57">
         <v>3.865373634389897E-3</v>
@@ -36175,9 +36029,8 @@
       <c r="A58">
         <v>6.7559353878096752E-3</v>
       </c>
-      <c r="B58" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B58" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C58">
         <v>4.2611329695413525E-3</v>
@@ -36205,9 +36058,8 @@
       <c r="A59">
         <v>7.4483392976354432E-3</v>
       </c>
-      <c r="B59" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B59" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C59">
         <v>4.6802678764138912E-3</v>
@@ -36235,9 +36087,8 @@
       <c r="A60">
         <v>8.1913879214374694E-3</v>
       </c>
-      <c r="B60" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B60" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C60">
         <v>5.1229616261224253E-3</v>
@@ -36265,9 +36116,8 @@
       <c r="A61">
         <v>8.9847892606168666E-3</v>
       </c>
-      <c r="B61" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B61" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C61">
         <v>5.5888858218103689E-3</v>
@@ -36295,9 +36145,8 @@
       <c r="A62">
         <v>9.8286483761561849E-3</v>
       </c>
-      <c r="B62" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B62" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C62">
         <v>6.0782188704200258E-3</v>
@@ -36325,9 +36174,8 @@
       <c r="A63">
         <v>1.4786353503723487E-2</v>
       </c>
-      <c r="B63" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B63" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C63">
         <v>8.859641005280243E-3</v>
@@ -36355,9 +36203,8 @@
       <c r="A64">
         <v>2.0929237295605998E-2</v>
       </c>
-      <c r="B64" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B64" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C64">
         <v>1.2201708749685857E-2</v>
@@ -36385,9 +36232,8 @@
       <c r="A65">
         <v>3.6362071828273876E-2</v>
       </c>
-      <c r="B65" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B65" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C65">
         <v>2.0404704211429814E-2</v>
@@ -36415,9 +36261,8 @@
       <c r="A66">
         <v>5.5366844064445267E-2</v>
       </c>
-      <c r="B66" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B66" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C66">
         <v>3.0493982217096434E-2</v>
@@ -36445,9 +36290,8 @@
       <c r="A67">
         <v>7.71302761009445E-2</v>
       </c>
-      <c r="B67" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B67" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C67">
         <v>4.2129913833019679E-2</v>
@@ -36475,9 +36319,8 @@
       <c r="A68">
         <v>0.11338052572375126</v>
       </c>
-      <c r="B68" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B68" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C68">
         <v>6.1667603680481256E-2</v>
@@ -36505,9 +36348,8 @@
       <c r="A69">
         <v>0.17947984476667661</v>
       </c>
-      <c r="B69" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B69" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C69">
         <v>9.7600555268659461E-2</v>
@@ -36535,9 +36377,8 @@
       <c r="A70">
         <v>0.24928312519074486</v>
       </c>
-      <c r="B70" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B70" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C70">
         <v>0.13578577204550604</v>
@@ -36565,9 +36406,8 @@
       <c r="A71">
         <v>0.3205363123936662</v>
       </c>
-      <c r="B71" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B71" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C71">
         <v>0.17483373841318811</v>
@@ -36595,9 +36435,8 @@
       <c r="A72">
         <v>0.39228698693448832</v>
       </c>
-      <c r="B72" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B72" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C72">
         <v>0.21417193148558777</v>
@@ -36625,9 +36464,8 @@
       <c r="A73">
         <v>0.46414366480174696</v>
       </c>
-      <c r="B73" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B73" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C73">
         <v>0.25357231830049526</v>
@@ -36655,9 +36493,8 @@
       <c r="A74">
         <v>0.53594791657929908</v>
       </c>
-      <c r="B74" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B74" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C74">
         <v>0.29294484085241096</v>
@@ -36685,9 +36522,8 @@
       <c r="A75">
         <v>0.6076374831312874</v>
       </c>
-      <c r="B75" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B75" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C75">
         <v>0.33225466435119522</v>
@@ -36715,9 +36551,8 @@
       <c r="A76">
         <v>0.75058668191208699</v>
       </c>
-      <c r="B76" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B76" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C76">
         <v>0.41063864054292942</v>
@@ -36745,9 +36580,8 @@
       <c r="A77">
         <v>0.93550931206466059</v>
       </c>
-      <c r="B77" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B77" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C77">
         <v>0.51203811896786222</v>
@@ -36775,9 +36609,8 @@
       <c r="A78">
         <v>1.9547572788243337</v>
       </c>
-      <c r="B78" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B78" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C78">
         <v>1.0709270661874279</v>
@@ -36805,9 +36638,8 @@
       <c r="A79">
         <v>3.8989425586167719</v>
       </c>
-      <c r="B79" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B79" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C79">
         <v>2.1369911692792942</v>
@@ -36835,9 +36667,8 @@
       <c r="A80">
         <v>7.4385858253813293</v>
       </c>
-      <c r="B80" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B80" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C80">
         <v>4.0779001288557666</v>
@@ -36865,9 +36696,8 @@
       <c r="A81">
         <v>13.322966844371289</v>
       </c>
-      <c r="B81" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B81" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C81">
         <v>7.3045099829460831</v>
@@ -36895,9 +36725,8 @@
       <c r="A82">
         <v>16.719545624592264</v>
       </c>
-      <c r="B82" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8346849375319311E-4</v>
+      <c r="B82" s="2">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C82">
         <v>9.166971731733156</v>
